--- a/natmiOut/OldD2/LR-pairs_lrc2p/Col2a1-Mag.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Col2a1-Mag.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>Neutro</t>
   </si>
   <si>
@@ -92,9 +98,6 @@
   </si>
   <si>
     <t>Mag</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.0355845406461851</v>
+        <v>0.051977</v>
       </c>
       <c r="H2">
-        <v>0.0355845406461851</v>
+        <v>0.103954</v>
       </c>
       <c r="I2">
-        <v>0.09515613399791167</v>
+        <v>0.08717138685919198</v>
       </c>
       <c r="J2">
-        <v>0.09515613399791167</v>
+        <v>0.06264791299175514</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.6240420749464261</v>
+        <v>0.27644</v>
       </c>
       <c r="N2">
-        <v>0.6240420749464261</v>
+        <v>0.8293199999999999</v>
       </c>
       <c r="O2">
-        <v>0.5460825143077291</v>
+        <v>0.1940440920813295</v>
       </c>
       <c r="P2">
-        <v>0.5460825143077291</v>
+        <v>0.2208748168298663</v>
       </c>
       <c r="Q2">
-        <v>0.02220625058086079</v>
+        <v>0.01436852188</v>
       </c>
       <c r="R2">
-        <v>0.02220625058086079</v>
+        <v>0.08621113127999999</v>
       </c>
       <c r="S2">
-        <v>0.05196310090538279</v>
+        <v>0.01691509261856224</v>
       </c>
       <c r="T2">
-        <v>0.05196310090538279</v>
+        <v>0.01383734630682732</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,123 +590,123 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.0355845406461851</v>
+        <v>0.051977</v>
       </c>
       <c r="H3">
-        <v>0.0355845406461851</v>
+        <v>0.103954</v>
       </c>
       <c r="I3">
-        <v>0.09515613399791167</v>
+        <v>0.08717138685919198</v>
       </c>
       <c r="J3">
-        <v>0.09515613399791167</v>
+        <v>0.06264791299175514</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.518719428299153</v>
+        <v>0.6290166666666667</v>
       </c>
       <c r="N3">
-        <v>0.518719428299153</v>
+        <v>1.88705</v>
       </c>
       <c r="O3">
-        <v>0.4539174856922708</v>
+        <v>0.4415315004607062</v>
       </c>
       <c r="P3">
-        <v>0.4539174856922708</v>
+        <v>0.502582625643659</v>
       </c>
       <c r="Q3">
-        <v>0.01845839258027711</v>
+        <v>0.03269439928333333</v>
       </c>
       <c r="R3">
-        <v>0.01845839258027711</v>
+        <v>0.1961663957</v>
       </c>
       <c r="S3">
-        <v>0.04319303309252887</v>
+        <v>0.03848891323717972</v>
       </c>
       <c r="T3">
-        <v>0.04319303309252887</v>
+        <v>0.03148575260249179</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.21574445352571</v>
+        <v>0.051977</v>
       </c>
       <c r="H4">
-        <v>0.21574445352571</v>
+        <v>0.103954</v>
       </c>
       <c r="I4">
-        <v>0.5769192957447823</v>
+        <v>0.08717138685919198</v>
       </c>
       <c r="J4">
-        <v>0.5769192957447823</v>
+        <v>0.06264791299175514</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.6240420749464261</v>
+        <v>0.5191680000000001</v>
       </c>
       <c r="N4">
-        <v>0.6240420749464261</v>
+        <v>1.038336</v>
       </c>
       <c r="O4">
-        <v>0.5460825143077291</v>
+        <v>0.3644244074579644</v>
       </c>
       <c r="P4">
-        <v>0.5460825143077291</v>
+        <v>0.2765425575264748</v>
       </c>
       <c r="Q4">
-        <v>0.1346336164363668</v>
+        <v>0.026984795136</v>
       </c>
       <c r="R4">
-        <v>0.1346336164363668</v>
+        <v>0.107939180544</v>
       </c>
       <c r="S4">
-        <v>0.3150455395729551</v>
+        <v>0.03176738100345003</v>
       </c>
       <c r="T4">
-        <v>0.3150455395729551</v>
+        <v>0.01732481408243603</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,258 +714,258 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.21574445352571</v>
+        <v>0.3153626666666667</v>
       </c>
       <c r="H5">
-        <v>0.21574445352571</v>
+        <v>0.946088</v>
       </c>
       <c r="I5">
-        <v>0.5769192957447823</v>
+        <v>0.5288993404187701</v>
       </c>
       <c r="J5">
-        <v>0.5769192957447823</v>
+        <v>0.5701602507507517</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.518719428299153</v>
+        <v>0.27644</v>
       </c>
       <c r="N5">
-        <v>0.518719428299153</v>
+        <v>0.8293199999999999</v>
       </c>
       <c r="O5">
-        <v>0.4539174856922708</v>
+        <v>0.1940440920813295</v>
       </c>
       <c r="P5">
-        <v>0.4539174856922708</v>
+        <v>0.2208748168298663</v>
       </c>
       <c r="Q5">
-        <v>0.1119108395915695</v>
+        <v>0.08717885557333332</v>
       </c>
       <c r="R5">
-        <v>0.1119108395915695</v>
+        <v>0.78460970016</v>
       </c>
       <c r="S5">
-        <v>0.2618737561718271</v>
+        <v>0.1026297923139742</v>
       </c>
       <c r="T5">
-        <v>0.2618737561718271</v>
+        <v>0.1259340409482429</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.0616938636322684</v>
+        <v>0.3153626666666667</v>
       </c>
       <c r="H6">
-        <v>0.0616938636322684</v>
+        <v>0.946088</v>
       </c>
       <c r="I6">
-        <v>0.1649747178981888</v>
+        <v>0.5288993404187701</v>
       </c>
       <c r="J6">
-        <v>0.1649747178981888</v>
+        <v>0.5701602507507517</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.6240420749464261</v>
+        <v>0.6290166666666667</v>
       </c>
       <c r="N6">
-        <v>0.6240420749464261</v>
+        <v>1.88705</v>
       </c>
       <c r="O6">
-        <v>0.5460825143077291</v>
+        <v>0.4415315004607062</v>
       </c>
       <c r="P6">
-        <v>0.5460825143077291</v>
+        <v>0.502582625643659</v>
       </c>
       <c r="Q6">
-        <v>0.03849956667254262</v>
+        <v>0.1983683733777778</v>
       </c>
       <c r="R6">
-        <v>0.03849956667254262</v>
+        <v>1.7853153604</v>
       </c>
       <c r="S6">
-        <v>0.09008980874705129</v>
+        <v>0.2335257193677774</v>
       </c>
       <c r="T6">
-        <v>0.09008980874705129</v>
+        <v>0.2865526358599598</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.0616938636322684</v>
+        <v>0.3153626666666667</v>
       </c>
       <c r="H7">
-        <v>0.0616938636322684</v>
+        <v>0.946088</v>
       </c>
       <c r="I7">
-        <v>0.1649747178981888</v>
+        <v>0.5288993404187701</v>
       </c>
       <c r="J7">
-        <v>0.1649747178981888</v>
+        <v>0.5701602507507517</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.518719428299153</v>
+        <v>0.5191680000000001</v>
       </c>
       <c r="N7">
-        <v>0.518719428299153</v>
+        <v>1.038336</v>
       </c>
       <c r="O7">
-        <v>0.4539174856922708</v>
+        <v>0.3644244074579644</v>
       </c>
       <c r="P7">
-        <v>0.4539174856922708</v>
+        <v>0.2765425575264748</v>
       </c>
       <c r="Q7">
-        <v>0.03200180567289617</v>
+        <v>0.163726204928</v>
       </c>
       <c r="R7">
-        <v>0.03200180567289617</v>
+        <v>0.9823572295680002</v>
       </c>
       <c r="S7">
-        <v>0.07488490915113755</v>
+        <v>0.1927438287370185</v>
       </c>
       <c r="T7">
-        <v>0.07488490915113755</v>
+        <v>0.1576735739425491</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.0609366459201686</v>
+        <v>0.01420033333333333</v>
       </c>
       <c r="H8">
-        <v>0.0609366459201686</v>
+        <v>0.042601</v>
       </c>
       <c r="I8">
-        <v>0.162949852359117</v>
+        <v>0.02381558671199722</v>
       </c>
       <c r="J8">
-        <v>0.162949852359117</v>
+        <v>0.0256735069488597</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.6240420749464261</v>
+        <v>0.27644</v>
       </c>
       <c r="N8">
-        <v>0.6240420749464261</v>
+        <v>0.8293199999999999</v>
       </c>
       <c r="O8">
-        <v>0.5460825143077291</v>
+        <v>0.1940440920813295</v>
       </c>
       <c r="P8">
-        <v>0.5460825143077291</v>
+        <v>0.2208748168298663</v>
       </c>
       <c r="Q8">
-        <v>0.03802703096029768</v>
+        <v>0.003925540146666667</v>
       </c>
       <c r="R8">
-        <v>0.03802703096029768</v>
+        <v>0.03532986132</v>
       </c>
       <c r="S8">
-        <v>0.08898406508233987</v>
+        <v>0.004621273900913675</v>
       </c>
       <c r="T8">
-        <v>0.08898406508233987</v>
+        <v>0.005670631144709685</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>23</v>
@@ -971,49 +974,669 @@
         <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.0609366459201686</v>
+        <v>0.01420033333333333</v>
       </c>
       <c r="H9">
-        <v>0.0609366459201686</v>
+        <v>0.042601</v>
       </c>
       <c r="I9">
-        <v>0.162949852359117</v>
+        <v>0.02381558671199722</v>
       </c>
       <c r="J9">
-        <v>0.162949852359117</v>
+        <v>0.0256735069488597</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.518719428299153</v>
+        <v>0.6290166666666667</v>
       </c>
       <c r="N9">
-        <v>0.518719428299153</v>
+        <v>1.88705</v>
       </c>
       <c r="O9">
-        <v>0.4539174856922708</v>
+        <v>0.4415315004607062</v>
       </c>
       <c r="P9">
-        <v>0.4539174856922708</v>
+        <v>0.502582625643659</v>
       </c>
       <c r="Q9">
-        <v>0.03160902213417777</v>
+        <v>0.008932246338888889</v>
       </c>
       <c r="R9">
-        <v>0.03160902213417777</v>
+        <v>0.08039021705</v>
       </c>
       <c r="S9">
-        <v>0.07396578727677713</v>
+        <v>0.01051533173530019</v>
       </c>
       <c r="T9">
-        <v>0.07396578727677713</v>
+        <v>0.01290305853183863</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.01420033333333333</v>
+      </c>
+      <c r="H10">
+        <v>0.042601</v>
+      </c>
+      <c r="I10">
+        <v>0.02381558671199722</v>
+      </c>
+      <c r="J10">
+        <v>0.0256735069488597</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.5191680000000001</v>
+      </c>
+      <c r="N10">
+        <v>1.038336</v>
+      </c>
+      <c r="O10">
+        <v>0.3644244074579644</v>
+      </c>
+      <c r="P10">
+        <v>0.2765425575264748</v>
+      </c>
+      <c r="Q10">
+        <v>0.007372358656000002</v>
+      </c>
+      <c r="R10">
+        <v>0.04423415193600001</v>
+      </c>
+      <c r="S10">
+        <v>0.008678981075783358</v>
+      </c>
+      <c r="T10">
+        <v>0.007099817272311384</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.073389</v>
+      </c>
+      <c r="H11">
+        <v>0.220167</v>
+      </c>
+      <c r="I11">
+        <v>0.1230817652078658</v>
+      </c>
+      <c r="J11">
+        <v>0.1326837164481959</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.27644</v>
+      </c>
+      <c r="N11">
+        <v>0.8293199999999999</v>
+      </c>
+      <c r="O11">
+        <v>0.1940440920813295</v>
+      </c>
+      <c r="P11">
+        <v>0.2208748168298663</v>
+      </c>
+      <c r="Q11">
+        <v>0.02028765516</v>
+      </c>
+      <c r="R11">
+        <v>0.18258889644</v>
+      </c>
+      <c r="S11">
+        <v>0.02388328938152769</v>
+      </c>
+      <c r="T11">
+        <v>0.02930649156680118</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.073389</v>
+      </c>
+      <c r="H12">
+        <v>0.220167</v>
+      </c>
+      <c r="I12">
+        <v>0.1230817652078658</v>
+      </c>
+      <c r="J12">
+        <v>0.1326837164481959</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.6290166666666667</v>
+      </c>
+      <c r="N12">
+        <v>1.88705</v>
+      </c>
+      <c r="O12">
+        <v>0.4415315004607062</v>
+      </c>
+      <c r="P12">
+        <v>0.502582625643659</v>
+      </c>
+      <c r="Q12">
+        <v>0.04616290415</v>
+      </c>
+      <c r="R12">
+        <v>0.41546613735</v>
+      </c>
+      <c r="S12">
+        <v>0.05434447647158133</v>
+      </c>
+      <c r="T12">
+        <v>0.06668453059269303</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.073389</v>
+      </c>
+      <c r="H13">
+        <v>0.220167</v>
+      </c>
+      <c r="I13">
+        <v>0.1230817652078658</v>
+      </c>
+      <c r="J13">
+        <v>0.1326837164481959</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.5191680000000001</v>
+      </c>
+      <c r="N13">
+        <v>1.038336</v>
+      </c>
+      <c r="O13">
+        <v>0.3644244074579644</v>
+      </c>
+      <c r="P13">
+        <v>0.2765425575264748</v>
+      </c>
+      <c r="Q13">
+        <v>0.038101220352</v>
+      </c>
+      <c r="R13">
+        <v>0.228607322112</v>
+      </c>
+      <c r="S13">
+        <v>0.0448539993547568</v>
+      </c>
+      <c r="T13">
+        <v>0.03669269428870169</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.06386066666666666</v>
+      </c>
+      <c r="H14">
+        <v>0.191582</v>
+      </c>
+      <c r="I14">
+        <v>0.1071016580234701</v>
+      </c>
+      <c r="J14">
+        <v>0.115456956603752</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.27644</v>
+      </c>
+      <c r="N14">
+        <v>0.8293199999999999</v>
+      </c>
+      <c r="O14">
+        <v>0.1940440920813295</v>
+      </c>
+      <c r="P14">
+        <v>0.2208748168298663</v>
+      </c>
+      <c r="Q14">
+        <v>0.01765364269333333</v>
+      </c>
+      <c r="R14">
+        <v>0.15888278424</v>
+      </c>
+      <c r="S14">
+        <v>0.0207824439915693</v>
+      </c>
+      <c r="T14">
+        <v>0.02550153414158754</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.06386066666666666</v>
+      </c>
+      <c r="H15">
+        <v>0.191582</v>
+      </c>
+      <c r="I15">
+        <v>0.1071016580234701</v>
+      </c>
+      <c r="J15">
+        <v>0.115456956603752</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.6290166666666667</v>
+      </c>
+      <c r="N15">
+        <v>1.88705</v>
+      </c>
+      <c r="O15">
+        <v>0.4415315004607062</v>
+      </c>
+      <c r="P15">
+        <v>0.502582625643659</v>
+      </c>
+      <c r="Q15">
+        <v>0.04016942367777777</v>
+      </c>
+      <c r="R15">
+        <v>0.3615248131</v>
+      </c>
+      <c r="S15">
+        <v>0.04728875576893219</v>
+      </c>
+      <c r="T15">
+        <v>0.05802666039873967</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.06386066666666666</v>
+      </c>
+      <c r="H16">
+        <v>0.191582</v>
+      </c>
+      <c r="I16">
+        <v>0.1071016580234701</v>
+      </c>
+      <c r="J16">
+        <v>0.115456956603752</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.5191680000000001</v>
+      </c>
+      <c r="N16">
+        <v>1.038336</v>
+      </c>
+      <c r="O16">
+        <v>0.3644244074579644</v>
+      </c>
+      <c r="P16">
+        <v>0.2765425575264748</v>
+      </c>
+      <c r="Q16">
+        <v>0.033154414592</v>
+      </c>
+      <c r="R16">
+        <v>0.198926487552</v>
+      </c>
+      <c r="S16">
+        <v>0.03903045826296864</v>
+      </c>
+      <c r="T16">
+        <v>0.03192876206342479</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.0774725</v>
+      </c>
+      <c r="H17">
+        <v>0.154945</v>
+      </c>
+      <c r="I17">
+        <v>0.129930262778705</v>
+      </c>
+      <c r="J17">
+        <v>0.09337765625668566</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.27644</v>
+      </c>
+      <c r="N17">
+        <v>0.8293199999999999</v>
+      </c>
+      <c r="O17">
+        <v>0.1940440920813295</v>
+      </c>
+      <c r="P17">
+        <v>0.2208748168298663</v>
+      </c>
+      <c r="Q17">
+        <v>0.0214164979</v>
+      </c>
+      <c r="R17">
+        <v>0.1284989874</v>
+      </c>
+      <c r="S17">
+        <v>0.02521219987478238</v>
+      </c>
+      <c r="T17">
+        <v>0.02062477272169766</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.0774725</v>
+      </c>
+      <c r="H18">
+        <v>0.154945</v>
+      </c>
+      <c r="I18">
+        <v>0.129930262778705</v>
+      </c>
+      <c r="J18">
+        <v>0.09337765625668566</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.6290166666666667</v>
+      </c>
+      <c r="N18">
+        <v>1.88705</v>
+      </c>
+      <c r="O18">
+        <v>0.4415315004607062</v>
+      </c>
+      <c r="P18">
+        <v>0.502582625643659</v>
+      </c>
+      <c r="Q18">
+        <v>0.04873149370833333</v>
+      </c>
+      <c r="R18">
+        <v>0.29238896225</v>
+      </c>
+      <c r="S18">
+        <v>0.05736830387993547</v>
+      </c>
+      <c r="T18">
+        <v>0.04692998765793612</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.0774725</v>
+      </c>
+      <c r="H19">
+        <v>0.154945</v>
+      </c>
+      <c r="I19">
+        <v>0.129930262778705</v>
+      </c>
+      <c r="J19">
+        <v>0.09337765625668566</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.5191680000000001</v>
+      </c>
+      <c r="N19">
+        <v>1.038336</v>
+      </c>
+      <c r="O19">
+        <v>0.3644244074579644</v>
+      </c>
+      <c r="P19">
+        <v>0.2765425575264748</v>
+      </c>
+      <c r="Q19">
+        <v>0.04022124288000001</v>
+      </c>
+      <c r="R19">
+        <v>0.16088497152</v>
+      </c>
+      <c r="S19">
+        <v>0.0473497590239872</v>
+      </c>
+      <c r="T19">
+        <v>0.02582289587705189</v>
       </c>
     </row>
   </sheetData>
